--- a/assets/files/Sales.xlsx
+++ b/assets/files/Sales.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Domain</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Channel BMS</t>
+  </si>
+  <si>
+    <t>Total score in all Level</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -292,11 +295,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -338,6 +378,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -620,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,10 +690,12 @@
     <col min="11" max="11" width="37" style="1" customWidth="1"/>
     <col min="12" max="12" width="24.36328125" style="1" customWidth="1"/>
     <col min="13" max="13" width="30.81640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="8.7265625" style="1"/>
+    <col min="15" max="15" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -659,7 +710,7 @@
       <c r="J1" s="20"/>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -702,8 +753,11 @@
       <c r="N2" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="O2" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E4" s="13">
         <v>4</v>
       </c>
@@ -735,8 +789,15 @@
         <f>SUM(E4:M4)</f>
         <v>35</v>
       </c>
+      <c r="O4" s="3">
+        <v>102</v>
+      </c>
+      <c r="P4" s="3">
+        <f>102*5</f>
+        <v>510</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -758,19 +819,35 @@
       <c r="G5" s="15">
         <v>3</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="15">
+        <v>3</v>
+      </c>
       <c r="I5" s="15">
         <v>2</v>
       </c>
       <c r="J5" s="15">
         <v>1</v>
       </c>
+      <c r="K5" s="15">
+        <v>7</v>
+      </c>
+      <c r="L5" s="15">
+        <v>10</v>
+      </c>
       <c r="N5" s="15">
         <f t="shared" ref="N5:N9" si="0">SUM(E5:M5)</f>
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="O5" s="6">
+        <f>N5/102*100</f>
+        <v>32.352941176470587</v>
+      </c>
+      <c r="P5" s="23">
+        <f>96/510*100</f>
+        <v>18.823529411764707</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -798,8 +875,13 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="O6" s="6">
+        <f t="shared" ref="O6:O9" si="1">N6/102*100</f>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -828,8 +910,13 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="O7" s="6">
+        <f t="shared" si="1"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="P7" s="24"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -847,15 +934,24 @@
         <v>3</v>
       </c>
       <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="I8" s="16">
+        <v>2</v>
+      </c>
+      <c r="J8" s="16">
+        <v>1</v>
+      </c>
       <c r="M8" s="18"/>
       <c r="N8" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="1"/>
+        <v>9.8039215686274517</v>
+      </c>
+      <c r="P8" s="24"/>
     </row>
-    <row r="9" spans="1:14" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -890,11 +986,17 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="O9" s="6">
+        <f t="shared" si="1"/>
+        <v>28.431372549019606</v>
+      </c>
+      <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="P5:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/files/Sales.xlsx
+++ b/assets/files/Sales.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="XPfy-LEVEL1" sheetId="2" r:id="rId1"/>
+    <sheet name="XPfy-LEVEL2" sheetId="3" r:id="rId2"/>
+    <sheet name="XPfy-LEVEL3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>Domain</t>
   </si>
@@ -105,6 +107,63 @@
   </si>
   <si>
     <t>Total score in all Level</t>
+  </si>
+  <si>
+    <t>Shorter Stories (1-3 days)</t>
+  </si>
+  <si>
+    <t>Dev + Test Roles</t>
+  </si>
+  <si>
+    <t>Weekly Retrospectives</t>
+  </si>
+  <si>
+    <t>Automated Data Mapping</t>
+  </si>
+  <si>
+    <t>BDD Based Stories</t>
+  </si>
+  <si>
+    <t>Dev +DA+ETL roles</t>
+  </si>
+  <si>
+    <t>Daily Retrospectives</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Automated Code Packaging</t>
+  </si>
+  <si>
+    <t>Automated Smoke tests post Deploy in SIT</t>
+  </si>
+  <si>
+    <t>Automated Transformation Tests</t>
+  </si>
+  <si>
+    <t>Automated Sprint Levels</t>
+  </si>
+  <si>
+    <t>Self Demos Sprint Level</t>
+  </si>
+  <si>
+    <t>Build To Test Traceability</t>
+  </si>
+  <si>
+    <t>Automated Deploy and smoke tests in Prod</t>
+  </si>
+  <si>
+    <t>Complete TDD Implementation</t>
+  </si>
+  <si>
+    <t>Automated Story Level</t>
+  </si>
+  <si>
+    <t>Self Demos Weekly</t>
+  </si>
+  <si>
+    <t>Story to Build Traceability</t>
   </si>
 </sst>
 </file>
@@ -336,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -363,6 +422,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -672,7 +737,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O9"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,20 +760,20 @@
     <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -842,9 +907,8 @@
         <f>N5/102*100</f>
         <v>32.352941176470587</v>
       </c>
-      <c r="P5" s="23">
-        <f>96/510*100</f>
-        <v>18.823529411764707</v>
+      <c r="P5" s="25">
+        <v>21.56</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -870,16 +934,21 @@
       <c r="I6" s="16">
         <v>2</v>
       </c>
-      <c r="J6" s="16"/>
+      <c r="J6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6" s="20">
+        <v>10</v>
+      </c>
       <c r="N6" s="15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="O6" s="6">
         <f t="shared" ref="O6:O9" si="1">N6/102*100</f>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="P6" s="24"/>
+        <v>22.549019607843139</v>
+      </c>
+      <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
@@ -914,7 +983,7 @@
         <f t="shared" si="1"/>
         <v>11.76470588235294</v>
       </c>
-      <c r="P7" s="24"/>
+      <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
@@ -929,7 +998,9 @@
       <c r="E8" s="16">
         <v>4</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
       <c r="G8" s="16">
         <v>3</v>
       </c>
@@ -943,13 +1014,13 @@
       <c r="M8" s="18"/>
       <c r="N8" s="15">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="1"/>
-        <v>9.8039215686274517</v>
-      </c>
-      <c r="P8" s="24"/>
+        <v>12.745098039215685</v>
+      </c>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
@@ -990,7 +1061,7 @@
         <f t="shared" si="1"/>
         <v>28.431372549019606</v>
       </c>
-      <c r="P9" s="25"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -1001,4 +1072,500 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="37" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.36328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2</v>
+      </c>
+      <c r="H4" s="13">
+        <v>3</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13">
+        <v>2</v>
+      </c>
+      <c r="K4" s="13">
+        <v>7</v>
+      </c>
+      <c r="L4" s="13">
+        <v>7</v>
+      </c>
+      <c r="M4" s="13">
+        <v>4</v>
+      </c>
+      <c r="N4" s="13">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3">
+        <f>SUM(E4:N4)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="P5" s="25"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="N6" s="15">
+        <v>2</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="26"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="27"/>
+    </row>
+    <row r="10" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="P5:P9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="37" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.36328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="13">
+        <v>4</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="13">
+        <v>3</v>
+      </c>
+      <c r="K4" s="13">
+        <v>10</v>
+      </c>
+      <c r="L4" s="13">
+        <v>7</v>
+      </c>
+      <c r="M4" s="13">
+        <v>5</v>
+      </c>
+      <c r="N4" s="13">
+        <v>3</v>
+      </c>
+      <c r="O4" s="3">
+        <f>SUM(E4:N4)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="P5" s="25"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="26"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="27"/>
+    </row>
+    <row r="10" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="P5:P9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/files/Sales.xlsx
+++ b/assets/files/Sales.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="XPfy-LEVEL1" sheetId="2" r:id="rId1"/>
@@ -49,21 +49,12 @@
     <t>MUPPAVARAPU, KANTIKIRAN</t>
   </si>
   <si>
-    <t>Sujeethkumar Kondapally</t>
-  </si>
-  <si>
     <t>Customer &amp; Assets</t>
   </si>
   <si>
-    <t>Fran Lombardo</t>
-  </si>
-  <si>
     <t>Pine Sales</t>
   </si>
   <si>
-    <t>Mova, Jenni</t>
-  </si>
-  <si>
     <t>Sweta Dalal</t>
   </si>
   <si>
@@ -164,6 +155,15 @@
   </si>
   <si>
     <t>Story to Build Traceability</t>
+  </si>
+  <si>
+    <t>Naveen Kudikala</t>
+  </si>
+  <si>
+    <t>Jenni Mova</t>
+  </si>
+  <si>
+    <t>Rekha Ikkurti</t>
   </si>
 </sst>
 </file>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,7 +762,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -789,37 +789,37 @@
         <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -916,10 +916,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E6" s="16">
         <v>4</v>
@@ -955,10 +955,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E7" s="16">
         <v>4</v>
@@ -990,10 +990,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E8" s="16">
         <v>4</v>
@@ -1027,10 +1027,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="17">
         <v>4</v>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1104,7 +1104,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1131,37 +1131,37 @@
         <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="O2" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1231,10 +1231,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19">
@@ -1255,10 +1255,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -1276,10 +1276,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -1297,10 +1297,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1355,7 +1355,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1382,37 +1382,37 @@
         <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="O2" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1426,10 +1426,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J4" s="13">
         <v>3</v>
@@ -1480,10 +1480,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -1500,10 +1500,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -1521,10 +1521,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -1542,10 +1542,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>

--- a/assets/files/Sales.xlsx
+++ b/assets/files/Sales.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7260" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="XPfy-LEVEL1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Domain</t>
   </si>
@@ -395,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -422,6 +422,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -736,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,20 +763,20 @@
     <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -899,15 +902,18 @@
       <c r="L5" s="15">
         <v>10</v>
       </c>
+      <c r="M5" s="15">
+        <v>2</v>
+      </c>
       <c r="N5" s="15">
         <f t="shared" ref="N5:N9" si="0">SUM(E5:M5)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O5" s="6">
         <f>N5/102*100</f>
-        <v>32.352941176470587</v>
-      </c>
-      <c r="P5" s="25">
+        <v>34.313725490196077</v>
+      </c>
+      <c r="P5" s="26">
         <v>21.56</v>
       </c>
     </row>
@@ -930,25 +936,33 @@
       <c r="G6" s="16">
         <v>3</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="I6" s="16">
         <v>2</v>
       </c>
       <c r="J6" s="16">
         <v>1</v>
+      </c>
+      <c r="K6" s="21">
+        <v>7</v>
       </c>
       <c r="L6" s="20">
         <v>10</v>
       </c>
+      <c r="M6" s="21">
+        <v>2</v>
+      </c>
       <c r="N6" s="15">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O6" s="6">
         <f t="shared" ref="O6:O9" si="1">N6/102*100</f>
-        <v>22.549019607843139</v>
-      </c>
-      <c r="P6" s="26"/>
+        <v>31.372549019607842</v>
+      </c>
+      <c r="P6" s="27"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
@@ -970,20 +984,30 @@
         <v>3</v>
       </c>
       <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="I7" s="16">
+        <v>2</v>
+      </c>
+      <c r="J7" s="16">
+        <v>1</v>
+      </c>
+      <c r="K7" s="21">
+        <v>7</v>
+      </c>
+      <c r="L7" s="21">
+        <v>10</v>
+      </c>
       <c r="M7" s="18">
         <v>2</v>
       </c>
       <c r="N7" s="15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" si="1"/>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="P7" s="26"/>
+        <v>31.372549019607842</v>
+      </c>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
@@ -1020,7 +1044,7 @@
         <f t="shared" si="1"/>
         <v>12.745098039215685</v>
       </c>
-      <c r="P8" s="26"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
@@ -1061,7 +1085,7 @@
         <f t="shared" si="1"/>
         <v>28.431372549019606</v>
       </c>
-      <c r="P9" s="27"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -1078,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1102,20 +1126,20 @@
     <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -1214,8 +1238,12 @@
         <v>6</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
+        <v>2</v>
+      </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15">
         <v>1</v>
@@ -1224,7 +1252,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="N5" s="15"/>
-      <c r="P5" s="25"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
@@ -1236,19 +1264,26 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="19">
+        <v>3</v>
+      </c>
       <c r="F6" s="19">
         <v>1</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
       <c r="J6" s="19"/>
+      <c r="M6" s="21">
+        <v>4</v>
+      </c>
       <c r="N6" s="15">
         <v>2</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="26"/>
+      <c r="P6" s="27"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
@@ -1269,7 +1304,7 @@
       <c r="M7" s="19"/>
       <c r="N7" s="15"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="26"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
@@ -1290,7 +1325,7 @@
       <c r="M8" s="19"/>
       <c r="N8" s="15"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="26"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
@@ -1313,7 +1348,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="15"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="27"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -1329,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1353,20 +1388,20 @@
     <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -1466,14 +1501,16 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="15">
+        <v>2</v>
+      </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="N5" s="15"/>
-      <c r="P5" s="25"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
@@ -1493,7 +1530,7 @@
       <c r="J6" s="19"/>
       <c r="N6" s="15"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="26"/>
+      <c r="P6" s="27"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
@@ -1514,7 +1551,7 @@
       <c r="M7" s="19"/>
       <c r="N7" s="15"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="26"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
@@ -1535,7 +1572,7 @@
       <c r="M8" s="19"/>
       <c r="N8" s="15"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="26"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
@@ -1558,7 +1595,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="15"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="27"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
